--- a/config_8.17/vip2_config.xlsx
+++ b/config_8.17/vip2_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="dangci|档次" sheetId="7" r:id="rId1"/>
@@ -23,8 +23,7 @@
     <sheet name="qys|千元赛" sheetId="12" r:id="rId9"/>
     <sheet name="gift|VIP礼包" sheetId="17" r:id="rId10"/>
     <sheet name="fhfl|富豪福利" sheetId="18" r:id="rId11"/>
-    <sheet name="vip|签到界面vip提示" sheetId="19" r:id="rId12"/>
-    <sheet name="vip_up|vip等级提升提示" sheetId="20" r:id="rId13"/>
+    <sheet name="vip_up|vip等级提升提示" sheetId="20" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'dangci|档次'!$E$1:$E$72</definedName>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="456">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1730,66 +1729,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>index|序号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip_level|VIP等级</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>dec_txt|描述</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"*解锁自动开炮特权","*解锁1元支付宝奖励金","*解锁兑换商城实物商品"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"*解锁VIP超级转盘","*解锁3元支付宝奖励金","*解锁10元京东卡"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"*解锁闪耀风暴炮台","*解锁5元支付宝奖励金","*解锁20元京东卡，50元话费"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"*解锁10元支付宝奖励金","*解锁100元京东卡，100元话费","*福利券容量提升到15万"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"*解锁金币使者炮台","*解锁200元、300元京东卡","*福利券容量提升到30万"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"*福利券容量提升到100万"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"*福利券容量提升到50万"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"*福利券容量提升到200万"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"*福利券容量提升到300万"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"*福利券容量提升到500万"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"*每日免费领取至尊礼包","*领30次礼包额外奖励1000万鱼币","*福利券容量提升到800万"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"*每日免费领取至尊礼包","*领30次礼包额外奖励200元话费","*福利券容量提升到1200万"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>index|行号</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1810,14 +1749,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>"抽奖券","绿芒","自动开炮","兑换特权","存钱罐","容量提升"</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>"抽奖券","炮台基座","自动开炮","1元支付宝红包","存钱罐","福利券容量提升"</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>"福利券转盘","3元支付宝红包","10元京东E卡","福利券容量提升"</t>
   </si>
   <si>
@@ -1831,10 +1762,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>"福利券容量提升"</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>"福利券转盘","兑换特权","兑换特权","容量提升"</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1847,8 +1774,36 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>"金币使者","兑换特权","兑换特权","容量提升"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"炮台基座","自动开炮","1元支付宝红包","存钱罐","福利券容量提升"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"绿芒","自动开炮","兑换特权","存钱罐","容量提升"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"容量提升",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"容量提升",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"至尊礼包",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"至尊礼包",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>"至尊礼包</t>
+      <t>"福利券容量提升"</t>
     </r>
     <r>
       <rPr>
@@ -1859,24 +1814,42 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"</t>
+      <t>,</t>
     </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>"金币使者","兑换特权","兑换特权","容量提升"</t>
+    <r>
+      <t>"福利券容量提升"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>"容量提升"</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>"容量提升"</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>"容量提升"</t>
+    <r>
+      <t>"福利券容量提升"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2054,7 +2027,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2142,9 +2115,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5004,173 +4974,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="111" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
-        <v>434</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>435</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>448</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5184,19 +4991,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F1" s="29"/>
     </row>
@@ -5208,10 +5015,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>455</v>
-      </c>
-      <c r="D2" t="s">
-        <v>454</v>
+        <v>447</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5222,10 +5029,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5236,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5250,10 +5057,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -5264,10 +5071,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -5277,11 +5084,11 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>460</v>
+      <c r="C7" s="17" t="s">
+        <v>453</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -5291,11 +5098,11 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>460</v>
+      <c r="C8" s="17" t="s">
+        <v>454</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -5305,11 +5112,11 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>460</v>
+      <c r="C9" s="17" t="s">
+        <v>454</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -5319,11 +5126,11 @@
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>460</v>
+      <c r="C10" s="17" t="s">
+        <v>454</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -5333,11 +5140,11 @@
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>460</v>
+      <c r="C11" s="17" t="s">
+        <v>455</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -5348,10 +5155,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -5362,10 +5169,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>

--- a/config_8.17/vip2_config.xlsx
+++ b/config_8.17/vip2_config.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="465">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1850,6 +1850,55 @@
       </rPr>
       <t>,</t>
     </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_rlts",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ty_icon_zzlb",</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_dz_02","ty_icon_zdkp","ty_icon_zfbhb1","ty_icon_cqg","ty_icon_rlts"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flqzp","ty_icon_zfbhb3","ty_icon_jdek10","ty_icon_rlts"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_rlts",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_pt_02","ty_icon_zfbhb5","ty_icon_jdek20","com_award_icon_hf50","ty_icon_rlts"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_zfbhb10","ty_icon_jdek100","com_award_icon_hf100","ty_icon_rlts"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_pt_03","ty_icon_jdek200","ty_icon_jdek300",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_pt_03","ty_icon_jdek200","ty_icon_jdek300","ty_icon_rlts"</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -4976,8 +5025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5020,6 +5069,9 @@
       <c r="D2" s="17" t="s">
         <v>448</v>
       </c>
+      <c r="E2" s="17" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -5034,6 +5086,9 @@
       <c r="D3" t="s">
         <v>443</v>
       </c>
+      <c r="E3" s="17" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -5048,6 +5103,9 @@
       <c r="D4" s="17" t="s">
         <v>444</v>
       </c>
+      <c r="E4" s="17" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -5062,6 +5120,9 @@
       <c r="D5" s="17" t="s">
         <v>445</v>
       </c>
+      <c r="E5" s="17" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -5076,6 +5137,9 @@
       <c r="D6" s="17" t="s">
         <v>446</v>
       </c>
+      <c r="E6" s="17" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -5090,6 +5154,9 @@
       <c r="D7" s="17" t="s">
         <v>449</v>
       </c>
+      <c r="E7" s="17" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -5104,6 +5171,9 @@
       <c r="D8" s="17" t="s">
         <v>450</v>
       </c>
+      <c r="E8" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -5118,6 +5188,9 @@
       <c r="D9" s="17" t="s">
         <v>449</v>
       </c>
+      <c r="E9" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -5132,6 +5205,9 @@
       <c r="D10" s="17" t="s">
         <v>450</v>
       </c>
+      <c r="E10" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -5146,6 +5222,9 @@
       <c r="D11" s="17" t="s">
         <v>450</v>
       </c>
+      <c r="E11" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -5160,6 +5239,9 @@
       <c r="D12" s="17" t="s">
         <v>451</v>
       </c>
+      <c r="E12" s="17" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -5173,6 +5255,9 @@
       </c>
       <c r="D13" s="17" t="s">
         <v>452</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>

--- a/config_8.17/vip2_config.xlsx
+++ b/config_8.17/vip2_config.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="464">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1749,12 +1749,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>"福利券转盘","3元支付宝红包","10元京东E卡","福利券容量提升"</t>
-  </si>
-  <si>
-    <t>"炮台","5元支付宝红包","20元京东E卡","50元话费","福利券容量提升"</t>
-  </si>
-  <si>
     <t>"10元支付宝红包","100元京东E卡","100元话费","福利券容量提升"</t>
   </si>
   <si>
@@ -1763,10 +1757,6 @@
   </si>
   <si>
     <t>"福利券转盘","兑换特权","兑换特权","容量提升"</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>"闪耀风暴","兑换特权","兑换特权","兑换特权","容量提升"</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1886,19 +1876,61 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>"ty_icon_pt_02","ty_icon_zfbhb5","ty_icon_jdek20","com_award_icon_hf50","ty_icon_rlts"</t>
+    <t>"ty_icon_pt_03","ty_icon_jdek200","ty_icon_jdek300","ty_icon_rlts"</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>"ty_icon_zfbhb10","ty_icon_jdek100","com_award_icon_hf100","ty_icon_rlts"</t>
+    <t>"闪耀风暴","兑换特权","兑换特权","兑换特权","容量提升","寒霜“</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>"ty_icon_pt_03","ty_icon_jdek200","ty_icon_jdek300",</t>
+    <t>"福利券转盘","3元支付宝红包","10元京东E卡","福利券容量提升"</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>"ty_icon_pt_03","ty_icon_jdek200","ty_icon_jdek300","ty_icon_rlts"</t>
+    <r>
+      <t>"炮台","5元支付宝红包","20元京东E卡","50元话费","福利券容量提升"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>炮台基座</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_zfbhb10","ty_icon_jdek100","ty_icon_hf100","ty_icon_rlts"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_pt_02","ty_icon_zfbhb5","ty_icon_jdek20","ty_icon_hf50","ty_icon_rlts","ty_icon_dz_03"</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -5026,14 +5058,14 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="63.75" customWidth="1"/>
+    <col min="3" max="3" width="67.375" customWidth="1"/>
     <col min="4" max="4" width="62.75" customWidth="1"/>
     <col min="5" max="5" width="96.625" customWidth="1"/>
   </cols>
@@ -5064,13 +5096,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5080,14 +5112,14 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>439</v>
-      </c>
-      <c r="D3" t="s">
-        <v>443</v>
+      <c r="C3" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>441</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5097,14 +5129,14 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>440</v>
+      <c r="C4" s="17" t="s">
+        <v>461</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5115,10 +5147,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>462</v>
@@ -5132,13 +5164,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -5149,13 +5181,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -5166,13 +5198,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E8" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -5183,13 +5215,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E9" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -5200,13 +5232,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E10" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -5217,13 +5249,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E11" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -5234,13 +5266,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -5251,13 +5283,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
